--- a/Data/EC/NIT-9007152720.xlsx
+++ b/Data/EC/NIT-9007152720.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C496CEE-A28F-4D9A-8387-D1D3DCFA2422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F527F8-85EF-4BC7-81D7-DBBBE3A2E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{591EF30C-F56C-4D26-973F-D0F3AE50C9DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{734BEEDC-9A3C-48C8-97DC-C6A90750100C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,102 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143367576</t>
+  </si>
+  <si>
+    <t>CRISTIAN PEREZ PESTANA</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>9295299</t>
+  </si>
+  <si>
+    <t>JAIME LUIS RODRIGUEZ PARRA</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
     <t>1143396690</t>
   </si>
   <si>
@@ -72,102 +168,6 @@
   </si>
   <si>
     <t>1610</t>
-  </si>
-  <si>
-    <t>1143367576</t>
-  </si>
-  <si>
-    <t>CRISTIAN PEREZ PESTANA</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>9295299</t>
-  </si>
-  <si>
-    <t>JAIME LUIS RODRIGUEZ PARRA</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -581,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD95E3A4-C574-8B6C-553D-06A2FE486DB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C52782-B919-3982-4815-DA7A1CE26639}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592CABF0-E6E0-4CA8-A0D5-CC439B7B4AB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829F4FCF-3FDE-4CBE-A97A-320410254D74}">
   <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1113,7 +1113,7 @@
         <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>689454</v>
+        <v>689455</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1133,10 +1133,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1147,19 +1147,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="18">
         <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1170,19 +1170,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
         <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1216,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1239,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1262,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1285,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1308,19 +1308,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1331,19 +1331,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1354,19 +1354,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1377,19 +1377,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1400,19 +1400,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1423,19 +1423,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1446,19 +1446,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1469,19 +1469,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1492,19 +1492,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1515,19 +1515,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1538,19 +1538,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1561,19 +1561,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1584,19 +1584,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1607,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1630,19 +1630,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1653,19 +1653,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1676,19 +1676,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1699,19 +1699,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1722,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1745,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="24">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="24">
-        <v>1300000</v>
+        <v>689454</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>

--- a/Data/EC/NIT-9007152720.xlsx
+++ b/Data/EC/NIT-9007152720.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39F527F8-85EF-4BC7-81D7-DBBBE3A2E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C55E30BC-9544-40C5-8A89-A2AEE850F9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{734BEEDC-9A3C-48C8-97DC-C6A90750100C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{424AD343-D74F-4626-BA79-BD4F02802623}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143396690</t>
+  </si>
+  <si>
+    <t>BRAYAN YESID HERNANDEZ ARGEL</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
     <t>1143367576</t>
   </si>
   <si>
@@ -80,94 +89,85 @@
     <t>JAIME LUIS RODRIGUEZ PARRA</t>
   </si>
   <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1143396690</t>
-  </si>
-  <si>
-    <t>BRAYAN YESID HERNANDEZ ARGEL</t>
-  </si>
-  <si>
-    <t>1610</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -266,7 +266,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -279,9 +281,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -481,23 +481,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -525,10 +525,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +581,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C52782-B919-3982-4815-DA7A1CE26639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766BC246-415B-A143-DB42-24F35913DDE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829F4FCF-3FDE-4CBE-A97A-320410254D74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382238B5-03BD-494F-AA95-BC6974932369}">
   <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1113,7 +1113,7 @@
         <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>689454</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1133,10 +1133,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>26041</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1147,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
         <v>31249</v>
@@ -1170,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>31249</v>
@@ -1193,13 +1193,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
@@ -1216,13 +1216,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>31249</v>
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
@@ -1262,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>31249</v>
@@ -1285,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
         <v>31249</v>
@@ -1308,13 +1308,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
@@ -1331,13 +1331,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
@@ -1354,13 +1354,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>31249</v>
@@ -1377,13 +1377,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
@@ -1400,13 +1400,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
@@ -1423,13 +1423,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
@@ -1446,13 +1446,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
         <v>31249</v>
@@ -1469,13 +1469,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
@@ -1492,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
@@ -1515,13 +1515,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
@@ -1538,13 +1538,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
@@ -1561,13 +1561,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
@@ -1584,13 +1584,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
@@ -1607,13 +1607,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
@@ -1630,13 +1630,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1653,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
@@ -1676,13 +1676,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
@@ -1699,13 +1699,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
@@ -1722,13 +1722,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
@@ -1745,19 +1745,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F44" s="24">
-        <v>27578</v>
+        <v>26041</v>
       </c>
       <c r="G44" s="24">
-        <v>689454</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>

--- a/Data/EC/NIT-9007152720.xlsx
+++ b/Data/EC/NIT-9007152720.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C55E30BC-9544-40C5-8A89-A2AEE850F9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED7B019D-42C9-4F60-BA7D-4368EE728FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{424AD343-D74F-4626-BA79-BD4F02802623}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8BDF6661-8FED-4BF6-B8AC-67FB7A8CB3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -281,7 +279,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,29 +475,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -516,19 +516,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +587,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766BC246-415B-A143-DB42-24F35913DDE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DB3525-A013-2475-8A96-7C2500DE4CD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -932,7 +938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382238B5-03BD-494F-AA95-BC6974932369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B3FE7-B61B-449E-9529-5DF6F39C9719}">
   <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -955,49 +961,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1005,7 +1011,7 @@
         <v>45</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9007152720</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>893671</v>
       </c>
@@ -1106,18 +1112,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>27578</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>689454</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1129,18 +1135,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>27578</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>689455</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1152,18 +1158,18 @@
       <c r="D18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1175,18 +1181,18 @@
       <c r="D19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1198,18 +1204,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1221,18 +1227,18 @@
       <c r="D21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1244,18 +1250,18 @@
       <c r="D22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1267,18 +1273,18 @@
       <c r="D23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1290,18 +1296,18 @@
       <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1313,18 +1319,18 @@
       <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1336,18 +1342,18 @@
       <c r="D26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1359,18 +1365,18 @@
       <c r="D27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1382,18 +1388,18 @@
       <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G28" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G28" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1405,18 +1411,18 @@
       <c r="D29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1428,18 +1434,18 @@
       <c r="D30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G30" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G30" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1451,18 +1457,18 @@
       <c r="D31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1474,18 +1480,18 @@
       <c r="D32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G32" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G32" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1497,18 +1503,18 @@
       <c r="D33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1520,18 +1526,18 @@
       <c r="D34" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G34" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G34" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1543,18 +1549,18 @@
       <c r="D35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1566,18 +1572,18 @@
       <c r="D36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G36" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G36" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1589,18 +1595,18 @@
       <c r="D37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1612,18 +1618,18 @@
       <c r="D38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G38" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G38" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1635,18 +1641,18 @@
       <c r="D39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1658,18 +1664,18 @@
       <c r="D40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G40" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G40" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1681,18 +1687,18 @@
       <c r="D41" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1704,18 +1710,18 @@
       <c r="D42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G42" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G42" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1727,47 +1733,47 @@
       <c r="D43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="22" t="s">
+      <c r="B44" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="26">
         <v>26041</v>
       </c>
-      <c r="G44" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
+      <c r="G44" s="26">
+        <v>781242</v>
+      </c>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="32"/>
+      <c r="C49" s="34"/>
       <c r="H49" s="1" t="s">
         <v>53</v>
       </c>
@@ -1775,10 +1781,10 @@
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="32"/>
+      <c r="C50" s="34"/>
       <c r="H50" s="1" t="s">
         <v>54</v>
       </c>
